--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Website</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>bgt@BGT123</t>
+  </si>
+  <si>
+    <t>NAF</t>
+  </si>
+  <si>
+    <t>docittlender@gmail.com</t>
+  </si>
+  <si>
+    <t>Jan@2017</t>
   </si>
 </sst>
 </file>
@@ -374,19 +383,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -408,18 +417,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>